--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbin/Documents/GitHub/CS-4833-Extra-credit-homework-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DC0663-D553-3D4E-A409-C788436ED5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F666E14C-689A-1D47-B34D-828A1881BBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{12977C95-144C-284C-A99F-DEFD04423E8D}"/>
   </bookViews>
@@ -162,18 +162,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbin/Documents/GitHub/CS-4833-Extra-credit-homework-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F666E14C-689A-1D47-B34D-828A1881BBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C9BB93-79CB-A746-A631-85A6A5DF5B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{12977C95-144C-284C-A99F-DEFD04423E8D}"/>
   </bookViews>
@@ -2057,7 +2057,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs Selection Sort</a:t>
+              <a:t> vs Selection Sort (ARM)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5842,7 +5842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71B6D3E-DF63-6844-9E2C-C3EDBED37729}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K40" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G33" zoomScale="110" workbookViewId="0">
       <selection activeCell="U66" sqref="U66"/>
     </sheetView>
   </sheetViews>
